--- a/report.xlsx
+++ b/report.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Сопроводительный реестр" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'Сопроводительный реестр'!$A$1:$I$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'Сопроводительный реестр'!$A$1:$G$42</definedName>
     <definedName function="false" hidden="false" name="JR_PAGE_ANCHOR_0_1" vbProcedure="false">#REF!</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Сопроводительный реестр</t>
   </si>
@@ -42,12 +42,6 @@
   </si>
   <si>
     <t xml:space="preserve">Передаваемые обращения:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Код организации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наименование организации</t>
   </si>
   <si>
     <t xml:space="preserve">Наименование обращения</t>
@@ -78,7 +72,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -102,6 +96,13 @@
     </font>
     <font>
       <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -198,7 +199,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -208,46 +209,62 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -268,45 +285,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="89" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="21.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="12.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="29.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1017" min="10" style="0" width="10.77"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1018" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="25.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1015" min="8" style="0" width="10.77"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1016" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2"/>
+    <row r="1" customFormat="false" ht="28.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="28.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -314,110 +328,187 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="58.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" customFormat="false" ht="21.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9" t="s">
+      <c r="G4" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="21.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" customFormat="false" ht="89" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="89" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-    </row>
+    </row>
+    <row r="9" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="33.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:I6"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.196527777777778" bottom="0.196527777777778" header="0.511805555555555" footer="0.511805555555555"/>
